--- a/GPT_MASB_Room201.xlsx
+++ b/GPT_MASB_Room201.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23001-CS-023</t>
+          <t>22001-EE-019</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23001-CS-024</t>
+          <t>22001-EE-020</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23001-CS-025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>23001-CS-026</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -525,12 +525,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CE-029</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-EC-034</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -540,12 +540,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>23001-CE-030</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24001-EC-035</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23001-CS-027</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23001-CS-028</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23001-CS-029</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>23001-CS-030</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>23001-CS-031</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>23001-CS-032</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
